--- a/xlsx/凯瑟琳·马赫_intext.xlsx
+++ b/xlsx/凯瑟琳·马赫_intext.xlsx
@@ -29,7 +29,7 @@
     <t>母校</t>
   </si>
   <si>
-    <t>政策_政策_維基百科_凯瑟琳·马赫</t>
+    <t>政策_政策_维基百科_凯瑟琳·马赫</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%BD%E7%BA%A6%E5%A4%A7%E5%AD%A6</t>
@@ -89,7 +89,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E5%AA%92%E9%AB%94%E5%9C%8B%E9%9A%9B%E6%9C%83%E8%AD%B0</t>
   </si>
   <si>
-    <t>維基媒體國際會議</t>
+    <t>维基媒体国际会议</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Wikimedia_Foundation</t>
